--- a/Phone_functions.xlsx
+++ b/Phone_functions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CV-datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\rpa_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E50DA29-2664-4F3B-ADB0-789303CC92F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C248DEC-14CD-437D-B7CD-88066C9A6646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phone_functions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="50">
   <si>
     <t>Model</t>
   </si>
@@ -175,6 +175,13 @@
   </si>
   <si>
     <t>camera</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pixel</t>
+  </si>
+  <si>
+    <t>pixel</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1127,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1138,7 +1145,7 @@
     <col min="5" max="5" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1170,19 +1177,19 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>44</v>
-      </c>
-      <c r="O1" t="s">
-        <v>6</v>
       </c>
       <c r="P1" t="s">
         <v>6</v>
@@ -1209,22 +1216,25 @@
         <v>6</v>
       </c>
       <c r="X1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" t="s">
         <v>42</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>37</v>
       </c>
       <c r="Z1" t="s">
         <v>37</v>
       </c>
       <c r="AA1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
       </c>
+      <c r="AC1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1256,43 +1266,46 @@
         <v>4</v>
       </c>
       <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>36</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>45</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>12</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>14</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>15</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>16</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>17</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>18</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1324,49 +1337,52 @@
         <v>4</v>
       </c>
       <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" t="s">
         <v>5</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>45</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>12</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>20</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>15</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>16</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>17</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>21</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>22</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>18</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1398,49 +1414,52 @@
         <v>4</v>
       </c>
       <c r="K4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s">
         <v>5</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>11</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>45</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>12</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>20</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>15</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>16</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>17</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>18</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>43</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1472,55 +1491,58 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
         <v>5</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>36</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>11</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>12</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>20</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>15</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>16</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>17</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>21</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>22</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>18</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>43</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1552,74 +1574,77 @@
         <v>4</v>
       </c>
       <c r="K6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>36</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>11</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>45</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>12</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>20</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>15</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>16</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>17</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>18</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>28</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>

--- a/Phone_functions.xlsx
+++ b/Phone_functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\rpa_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C248DEC-14CD-437D-B7CD-88066C9A6646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E474A8C-A5F9-4CAC-AF4F-67BA94938ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="52">
   <si>
     <t>Model</t>
   </si>
@@ -182,6 +182,14 @@
   </si>
   <si>
     <t>pixel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1134,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1145,7 +1153,7 @@
     <col min="5" max="5" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1168,31 +1176,31 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>44</v>
-      </c>
-      <c r="P1" t="s">
-        <v>6</v>
       </c>
       <c r="Q1" t="s">
         <v>6</v>
@@ -1219,22 +1227,25 @@
         <v>6</v>
       </c>
       <c r="Y1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" t="s">
         <v>42</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>37</v>
       </c>
       <c r="AA1" t="s">
         <v>37</v>
       </c>
       <c r="AB1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC1" t="s">
         <v>38</v>
       </c>
+      <c r="AD1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1257,55 +1268,58 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>41</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>49</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>11</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>45</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>13</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>14</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>15</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>16</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>17</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1328,61 +1342,64 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>41</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>48</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>45</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>13</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>20</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>15</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>16</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>17</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>21</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>22</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>18</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1405,61 +1422,64 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>4</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>48</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>5</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>36</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>11</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>45</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>13</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>20</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>15</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>16</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>17</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>18</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>43</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>24</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1482,67 +1502,70 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>41</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>4</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>48</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>5</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>36</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>11</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>45</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>13</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>20</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>15</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>16</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>17</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>21</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>22</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>18</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>43</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>24</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1565,86 +1588,89 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
         <v>3</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>41</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>4</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>48</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>5</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>36</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>11</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>45</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>13</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>20</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>15</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>16</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>17</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>18</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>43</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>

--- a/Phone_functions.xlsx
+++ b/Phone_functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\rpa_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E474A8C-A5F9-4CAC-AF4F-67BA94938ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7091D3-A623-4E38-B6E2-587CFAF2CFD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="54">
   <si>
     <t>Model</t>
   </si>
@@ -190,6 +190,14 @@
   </si>
   <si>
     <t>sound</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>recognition</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>facial</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1142,18 +1150,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="17" max="17" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1203,10 +1213,10 @@
         <v>44</v>
       </c>
       <c r="Q1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="S1" t="s">
         <v>6</v>
@@ -1230,22 +1240,28 @@
         <v>6</v>
       </c>
       <c r="Z1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1292,34 +1308,40 @@
         <v>11</v>
       </c>
       <c r="P2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>12</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>13</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>14</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>15</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>16</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1366,40 +1388,46 @@
         <v>11</v>
       </c>
       <c r="P3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>12</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>13</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>20</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>15</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>16</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>17</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>21</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Z3" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AB3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1446,40 +1474,46 @@
         <v>11</v>
       </c>
       <c r="P4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>12</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>13</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>20</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>15</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>16</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>17</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>43</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>24</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1526,46 +1560,52 @@
         <v>11</v>
       </c>
       <c r="P5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>12</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>13</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>20</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>15</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>16</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>17</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Y5" t="s">
         <v>21</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Z5" t="s">
         <v>22</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AA5" t="s">
         <v>18</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AB5" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AC5" t="s">
         <v>24</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1612,65 +1652,71 @@
         <v>11</v>
       </c>
       <c r="P6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>12</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>13</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>20</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>15</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
         <v>16</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>17</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AA6" t="s">
         <v>18</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AB6" t="s">
         <v>43</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AE6" t="s">
         <v>28</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AF6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>

--- a/Phone_functions.xlsx
+++ b/Phone_functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\rpa_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7091D3-A623-4E38-B6E2-587CFAF2CFD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD84037B-648A-4D96-AD2E-62F86EF149F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="55">
   <si>
     <t>Model</t>
   </si>
@@ -199,13 +199,16 @@
   <si>
     <t>facial</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>aperture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +365,22 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -791,9 +810,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1150,574 +1175,595 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="17" max="17" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
+    <col min="6" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Phone_functions.xlsx
+++ b/Phone_functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\rpa_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD84037B-648A-4D96-AD2E-62F86EF149F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E09F732-AB93-4388-BE09-A315D9164466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="28800" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phone_functions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="58">
   <si>
     <t>Model</t>
   </si>
@@ -202,6 +202,18 @@
   </si>
   <si>
     <t>aperture</t>
+  </si>
+  <si>
+    <t>filter</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bright</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1175,31 +1187,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
-    <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="13.25" style="1" customWidth="1"/>
+    <col min="8" max="20" width="9" style="1"/>
+    <col min="21" max="21" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1211,52 +1224,52 @@
         <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>6</v>
@@ -1277,492 +1290,564 @@
         <v>6</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="AG2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="N5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AH5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="N6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>

--- a/Phone_functions.xlsx
+++ b/Phone_functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\rpa_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E09F732-AB93-4388-BE09-A315D9164466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA40CB2-6FC8-418E-8BEB-20FC4BF7FA3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="28800" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phone_functions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="58">
   <si>
     <t>Model</t>
   </si>
@@ -1187,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1204,7 +1204,7 @@
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,19 +1302,22 @@
         <v>42</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1409,22 +1412,25 @@
         <v>18</v>
       </c>
       <c r="AF2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1519,10 +1525,13 @@
         <v>18</v>
       </c>
       <c r="AF3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1611,16 +1620,19 @@
         <v>18</v>
       </c>
       <c r="AF4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1715,16 +1727,19 @@
         <v>18</v>
       </c>
       <c r="AF5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="AH5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AH5" s="1" t="s">
+      <c r="AI5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1813,41 +1828,44 @@
         <v>18</v>
       </c>
       <c r="AF6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AJ6" s="1" t="s">
+      <c r="AK6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>

--- a/Phone_functions.xlsx
+++ b/Phone_functions.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\rpa_resource\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA40CB2-6FC8-418E-8BEB-20FC4BF7FA3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Phone_functions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="67">
   <si>
     <t>Model</t>
   </si>
@@ -213,14 +207,50 @@
   </si>
   <si>
     <t>button</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>detection</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bluetooth</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>etc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>design</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>security</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>budget</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,7 +963,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -985,7 +1015,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1179,32 +1209,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AR12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AN6" sqref="AN6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
     <col min="3" max="6" width="9" style="1"/>
     <col min="7" max="7" width="13.25" style="1" customWidth="1"/>
-    <col min="8" max="20" width="9" style="1"/>
-    <col min="21" max="21" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="1"/>
+    <col min="8" max="22" width="9" style="1"/>
+    <col min="23" max="23" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1266,16 +1296,16 @@
         <v>44</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>6</v>
@@ -1299,25 +1329,46 @@
         <v>6</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1379,58 +1430,79 @@
         <v>53</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AN2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1492,46 +1564,67 @@
         <v>53</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="AN3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1593,46 +1686,67 @@
         <v>53</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AK4" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AN4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1694,52 +1808,73 @@
         <v>53</v>
       </c>
       <c r="U5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AH5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="AI5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AH5" s="1" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AK5" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AN5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1801,71 +1936,92 @@
         <v>53</v>
       </c>
       <c r="U6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AG6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AH6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AJ6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AN6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1873,6 +2029,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>